--- a/doc/5.注册机制原理剖析.xlsx
+++ b/doc/5.注册机制原理剖析.xlsx
@@ -2064,6 +2064,119 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="文本框 13"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10363200" y="1095375"/>
+          <a:ext cx="4124325" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>SparkDeploySchedulerBackend </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>在</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2.0</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>后更名为</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>StandaloneSchedulerBackend</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2075,7 +2188,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="C7EDCC"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2357,7 +2470,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/5.注册机制原理剖析.xlsx
+++ b/doc/5.注册机制原理剖析.xlsx
@@ -425,24 +425,36 @@
             <a:t>，会底层调用</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>SparkDeploySchedulerBackend,</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>StandaloneSchedulerBackend</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>,</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>会通过</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>AppClient</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>StandaloneAppClient</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
             <a:t>内部的线程</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>clicentActor</a:t>
+            <a:rPr lang="en-US" altLang="zh-CN"/>
+            <a:t>ClientEndpoint</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
@@ -1109,7 +1121,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-            <a:t>(HashMap)</a:t>
+            <a:t>(HashSet)</a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1119,14 +1131,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -1137,8 +1149,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219825" y="4029075"/>
-          <a:ext cx="1733550" cy="504825"/>
+          <a:off x="5981700" y="4029075"/>
+          <a:ext cx="2257425" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1173,7 +1185,23 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>等待调度队列中（</a:t>
+            <a:t>等待调度队列中</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" i="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>waitingApps</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>（</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
@@ -1190,16 +1218,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1208,8 +1236,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219825" y="4848225"/>
-          <a:ext cx="1819275" cy="571500"/>
+          <a:off x="6019800" y="4848225"/>
+          <a:ext cx="2333625" cy="704850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1244,8 +1272,29 @@
           </a:r>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            <a:t>的信息持久化</a:t>
-          </a:r>
+            <a:t>的信息持久化并向</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>Driver</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>发送</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" i="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>RegisteredApplication</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" i="1">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>信息</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1923,7 +1972,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>252413</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
@@ -1938,7 +1987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7038975" y="3667125"/>
-          <a:ext cx="47625" cy="361950"/>
+          <a:ext cx="71438" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1967,13 +2016,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>252413</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>271463</xdr:colOff>
+      <xdr:colOff>328613</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -1987,8 +2036,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7086600" y="4533900"/>
-          <a:ext cx="42863" cy="314325"/>
+          <a:off x="7110413" y="4533900"/>
+          <a:ext cx="76200" cy="314325"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2018,12 +2067,12 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>271463</xdr:colOff>
+      <xdr:colOff>328613</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
@@ -2037,8 +2086,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="7115175" y="5419725"/>
-          <a:ext cx="14288" cy="457200"/>
+          <a:off x="7115175" y="5553075"/>
+          <a:ext cx="71438" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2470,7 +2519,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
